--- a/data/trans_orig/Q02D_LAB-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.642046283871152</v>
+        <v>3.548649644351257</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.374907743403623</v>
+        <v>5.421204001452097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.842360290198906</v>
+        <v>5.863136595131666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.357197741230862</v>
+        <v>3.342075537979612</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.675761070827452</v>
+        <v>5.656680744441727</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.013150933243118</v>
+        <v>6.982431097821259</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.655420151660199</v>
+        <v>7.639806649097118</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.790696854503635</v>
+        <v>6.757251572581001</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.366873624745708</v>
+        <v>5.326869180553365</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.465365050351134</v>
+        <v>6.498751316862769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.076765928155445</v>
+        <v>7.084746672595885</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.852462633984871</v>
+        <v>5.85494360293863</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.381749323539739</v>
+        <v>5.3952198479935</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.224083404855101</v>
+        <v>6.21061002047471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.34804151347386</v>
+        <v>7.295365381548613</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.197012519556075</v>
+        <v>5.149030983823023</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.116617331914841</v>
+        <v>7.162070812691848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.74348838041895</v>
+        <v>7.757410908269395</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.892894035061033</v>
+        <v>8.847898610283016</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.922381413573069</v>
+        <v>9.020494217655457</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.521022203364016</v>
+        <v>6.526595776022408</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.040093993686949</v>
+        <v>7.050632670345307</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.024942545994495</v>
+        <v>8.008496594648392</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.686451357713209</v>
+        <v>7.686229298942469</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.159859198418395</v>
+        <v>3.209094043761297</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.775724664508523</v>
+        <v>3.797174600833304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.788369153233515</v>
+        <v>5.730032480104762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.567355251276465</v>
+        <v>4.563085793351107</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.238003338962395</v>
+        <v>5.244619428647389</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.067283238981951</v>
+        <v>6.031448242084354</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.884849040610696</v>
+        <v>7.927199841156557</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>5.825608532467667</v>
+        <v>5.812150377839183</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.575955371996483</v>
+        <v>4.611133445146903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.297813333189072</v>
+        <v>5.329205933215614</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.331052391685553</v>
+        <v>7.25500474947536</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.463355671671763</v>
+        <v>5.472769930919569</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.36300751782724</v>
+        <v>4.40483128932774</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.598377580936086</v>
+        <v>4.644083663688909</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.404317746341169</v>
+        <v>7.301476705688803</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.987295591273821</v>
+        <v>7.025725371828988</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.443256868076052</v>
+        <v>6.471695410245961</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.817725980320547</v>
+        <v>6.789374834077006</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.353023814080117</v>
+        <v>9.408204753102854</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.230603929694884</v>
+        <v>7.14792468964356</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.456009453854583</v>
+        <v>5.565167207125106</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5.888434327841522</v>
+        <v>5.891847076764045</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8.411993016700958</v>
+        <v>8.370583731726946</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>6.777363756396167</v>
+        <v>6.803119363348862</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>5.697802558135177</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.664842446305093</v>
+        <v>5.664842446305094</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.278850981581535</v>
@@ -953,7 +953,7 @@
         <v>8.791497589152401</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.858341640058653</v>
+        <v>7.858341640058648</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.303459924992278</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.724432799820999</v>
+        <v>2.709624796059114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.695468715250408</v>
+        <v>3.656678968544606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.120431042149177</v>
+        <v>5.099930174121551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.597456794909633</v>
+        <v>4.465387908797848</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.728541416531318</v>
+        <v>4.757552114429179</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.32318389268088</v>
+        <v>5.321871092531667</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.979633968328619</v>
+        <v>7.918600631058986</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.791289262826844</v>
+        <v>6.885762213361772</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.929598068153787</v>
+        <v>3.936452320273107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4.735573526412156</v>
+        <v>4.763971712439528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.714061090807367</v>
+        <v>6.757333639671717</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.268574665143404</v>
+        <v>6.288409029483982</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.793253313245919</v>
+        <v>3.732979223979453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.514911350858479</v>
+        <v>4.491378044841381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.494379371892316</v>
+        <v>6.426091943501679</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.279439679907824</v>
+        <v>7.345425578276983</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.911937057444953</v>
+        <v>5.981182851541084</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.0586595723648</v>
+        <v>6.096505269766469</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.787812502157225</v>
+        <v>9.726528572261254</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.078946840881599</v>
+        <v>9.232450225358864</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.695628273916945</v>
+        <v>4.758740238606993</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5.330430029169019</v>
+        <v>5.346509558969216</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.899323223947053</v>
+        <v>7.956561532785683</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>8.099608837018746</v>
+        <v>8.132397720671021</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.171122222516099</v>
+        <v>3.220456515348901</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.850636368320739</v>
+        <v>3.823895406564853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.345441097723348</v>
+        <v>5.385501711072448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.404895863821994</v>
+        <v>6.402722737589435</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.91451466475162</v>
+        <v>4.906316764628118</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.120462592664079</v>
+        <v>6.113696590790034</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.824513897948508</v>
+        <v>7.776148704888348</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>10.18997328689714</v>
+        <v>10.52582537599695</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.315788642223064</v>
+        <v>4.331946233464236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.234093336035074</v>
+        <v>5.188265714562169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.076677927441044</v>
+        <v>7.081733266232473</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>9.316012145167951</v>
+        <v>9.311362281029924</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.350790792078518</v>
+        <v>5.509198795396928</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.049448082507878</v>
+        <v>5.010882929003961</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.635641934055788</v>
+        <v>7.635995202909838</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.80734431305119</v>
+        <v>15.169292147449</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.165733881148777</v>
+        <v>6.893573888041673</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.343408606716381</v>
+        <v>7.414726040185097</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.538437102582394</v>
+        <v>9.524904292651872</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>16.94880994106218</v>
+        <v>16.83397765040608</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5.931545762065138</v>
+        <v>5.996698225117188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.169247160528085</v>
+        <v>6.189433334257704</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.535840032324721</v>
+        <v>8.506911048272373</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>14.43631241095894</v>
+        <v>14.71442403739255</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>7.588509039368639</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>6.923712975452706</v>
+        <v>6.923712975452707</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.306247912826975</v>
+        <v>3.29668867444501</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.487941741328816</v>
+        <v>4.5086750699278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.881895601655562</v>
+        <v>5.87843907310442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.068397453941725</v>
+        <v>4.982465456691928</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.480182011572185</v>
+        <v>5.476964310766219</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.392165427854978</v>
+        <v>6.378865403488912</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.086853123371956</v>
+        <v>8.089382169077441</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.117882852324975</v>
+        <v>7.104817456806499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.709829698643705</v>
+        <v>4.724111682465339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.700403832122912</v>
+        <v>5.704350974993388</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.303133348346005</v>
+        <v>7.303351951010689</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.418705039805028</v>
+        <v>6.480108517818953</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.973188349871088</v>
+        <v>3.96736462428489</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.962492542079059</v>
+        <v>4.971460233669741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.710309531386138</v>
+        <v>6.693390478284111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.601819460402996</v>
+        <v>6.625383901310363</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.187216435492688</v>
+        <v>6.172061645533782</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.823589296938243</v>
+        <v>6.829851556131088</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.8534755976572</v>
+        <v>8.857039020663462</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.291731674026222</v>
+        <v>8.391105211801429</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.271153275991447</v>
+        <v>5.212561867367294</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.0224390953726</v>
+        <v>6.016157388177622</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.851520512391855</v>
+        <v>7.876202155118865</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.413866809603816</v>
+        <v>7.472742641848059</v>
       </c>
     </row>
     <row r="19">
